--- a/images/authority_over_conservancy.xlsx
+++ b/images/authority_over_conservancy.xlsx
@@ -53,10 +53,10 @@
     <t xml:space="preserve">Lemek</t>
   </si>
   <si>
+    <t xml:space="preserve">All conservancy members</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;i&gt;Don't Know&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All conservancy members</t>
   </si>
   <si>
     <t xml:space="preserve">Mbokishi</t>
@@ -489,25 +489,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00524950000139064</v>
+        <v>0.0332964963361966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0687415634934541</v>
+        <v>0.157179694139994</v>
       </c>
       <c r="F4" t="n">
-        <v>6.761904</v>
+        <v>20.285712</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.11814337430819</v>
+        <v>7.09215292049398</v>
       </c>
       <c r="H4" t="n">
-        <v>14.6419513743082</v>
+        <v>33.479271079506</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -544,28 +544,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.396825396825397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0332964963361966</v>
+        <v>0.293589398655566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.157179694139994</v>
+        <v>0.500061394995228</v>
       </c>
       <c r="F6" t="n">
-        <v>20.285712</v>
+        <v>84.5238</v>
       </c>
       <c r="G6" t="n">
-        <v>7.09215292049398</v>
+        <v>62.5345348674899</v>
       </c>
       <c r="H6" t="n">
-        <v>33.479271079506</v>
+        <v>106.51306513251</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -573,28 +573,28 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396825396825397</v>
+        <v>0.0317460317460317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.293589398655566</v>
+        <v>-0.00524950000139064</v>
       </c>
       <c r="E7" t="n">
-        <v>0.500061394995228</v>
+        <v>0.0687415634934541</v>
       </c>
       <c r="F7" t="n">
-        <v>84.5238</v>
+        <v>6.761904</v>
       </c>
       <c r="G7" t="n">
-        <v>62.5345348674899</v>
+        <v>-1.11814337430819</v>
       </c>
       <c r="H7" t="n">
-        <v>106.51306513251</v>
+        <v>14.6419513743082</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -605,25 +605,25 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217391304347826</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0917358372388617</v>
+        <v>0.24262679410623</v>
       </c>
       <c r="E8" t="n">
-        <v>0.34304677145679</v>
+        <v>0.539981901545943</v>
       </c>
       <c r="F8" t="n">
-        <v>10.434785</v>
+        <v>18.782613</v>
       </c>
       <c r="G8" t="n">
-        <v>4.40332119655958</v>
+        <v>11.6460887859938</v>
       </c>
       <c r="H8" t="n">
-        <v>16.4662488034404</v>
+        <v>25.9191372140062</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -660,28 +660,28 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391304347826087</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24262679410623</v>
+        <v>-0.0186474648016881</v>
       </c>
       <c r="E10" t="n">
-        <v>0.539981901545943</v>
+        <v>0.105603986540819</v>
       </c>
       <c r="F10" t="n">
-        <v>18.782613</v>
+        <v>2.086957</v>
       </c>
       <c r="G10" t="n">
-        <v>11.6460887859938</v>
+        <v>-0.895078515603144</v>
       </c>
       <c r="H10" t="n">
-        <v>25.9191372140062</v>
+        <v>5.06899251560314</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -689,28 +689,28 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0186474648016881</v>
+        <v>0.0917358372388617</v>
       </c>
       <c r="E11" t="n">
-        <v>0.105603986540819</v>
+        <v>0.34304677145679</v>
       </c>
       <c r="F11" t="n">
-        <v>2.086957</v>
+        <v>10.434785</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.895078515603144</v>
+        <v>4.40332119655958</v>
       </c>
       <c r="H11" t="n">
-        <v>5.06899251560314</v>
+        <v>16.4662488034404</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -718,28 +718,28 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105263157894737</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.023633613550423</v>
+        <v>0.00474255098924412</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234159929339897</v>
+        <v>0.311046922694966</v>
       </c>
       <c r="F12" t="n">
-        <v>10.526316</v>
+        <v>15.789474</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.36336140230953</v>
+        <v>0.474255108409505</v>
       </c>
       <c r="H12" t="n">
-        <v>23.4159934023095</v>
+        <v>31.1046928915905</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -747,28 +747,28 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.157894736842105</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00474255098924412</v>
+        <v>0.551893269871805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.311046922694966</v>
+        <v>0.921790940654511</v>
       </c>
       <c r="F13" t="n">
-        <v>15.789474</v>
+        <v>73.684212</v>
       </c>
       <c r="G13" t="n">
-        <v>0.474255108409505</v>
+        <v>55.189328090967</v>
       </c>
       <c r="H13" t="n">
-        <v>31.1046928915905</v>
+        <v>92.179095909033</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -776,28 +776,28 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.736842105263158</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.551893269871805</v>
+        <v>-0.023633613550423</v>
       </c>
       <c r="E14" t="n">
-        <v>0.921790940654511</v>
+        <v>0.234159929339897</v>
       </c>
       <c r="F14" t="n">
-        <v>73.684212</v>
+        <v>10.526316</v>
       </c>
       <c r="G14" t="n">
-        <v>55.189328090967</v>
+        <v>-2.36336140230953</v>
       </c>
       <c r="H14" t="n">
-        <v>92.179095909033</v>
+        <v>23.4159934023095</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/images/authority_over_conservancy.xlsx
+++ b/images/authority_over_conservancy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -48,21 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Conservancy management company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All conservancy members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;i&gt;Don't Know&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbokishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ol Chorro</t>
   </si>
 </sst>
 </file>
@@ -481,325 +466,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0952380952380952</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0332964963361966</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.157179694139994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.285712</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.09215292049398</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33.479271079506</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.444444444444444</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.339591073684386</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.549297815204503</v>
-      </c>
-      <c r="F5" t="n">
-        <v>94.666656</v>
-      </c>
-      <c r="G5" t="n">
-        <v>72.3328905445885</v>
-      </c>
-      <c r="H5" t="n">
-        <v>117.000421455411</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.396825396825397</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.293589398655566</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.500061394995228</v>
-      </c>
-      <c r="F6" t="n">
-        <v>84.5238</v>
-      </c>
-      <c r="G6" t="n">
-        <v>62.5345348674899</v>
-      </c>
-      <c r="H6" t="n">
-        <v>106.51306513251</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0317460317460317</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.00524950000139064</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0687415634934541</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.761904</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1.11814337430819</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.6419513743082</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.24262679410623</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.539981901545943</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.782613</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.6460887859938</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25.9191372140062</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.304347826086957</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.164173284159573</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.44452236801434</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14.608699</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.88031944556562</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21.3370785544344</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.0186474648016881</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.105603986540819</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.086957</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.895078515603144</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.06899251560314</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.217391304347826</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0917358372388617</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.34304677145679</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.434785</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.40332119655958</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.4662488034404</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.157894736842105</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.00474255098924412</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.311046922694966</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15.789474</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.474255108409505</v>
-      </c>
-      <c r="H12" t="n">
-        <v>31.1046928915905</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.551893269871805</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.921790940654511</v>
-      </c>
-      <c r="F13" t="n">
-        <v>73.684212</v>
-      </c>
-      <c r="G13" t="n">
-        <v>55.189328090967</v>
-      </c>
-      <c r="H13" t="n">
-        <v>92.179095909033</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.105263157894737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.023633613550423</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.234159929339897</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10.526316</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-2.36336140230953</v>
-      </c>
-      <c r="H14" t="n">
-        <v>23.4159934023095</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
